--- a/memoria/escalar_agentes/pasillo/pasillo.xlsx
+++ b/memoria/escalar_agentes/pasillo/pasillo.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\MT-MARL\memoria\pasillo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\PycharmProjects\MT-MARL\memoria\escalar_agentes\pasillo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECC5007-D1CF-4D73-A08A-D4B193CCCF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109F403C-384D-421E-A044-70052B9CCEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28155" windowHeight="15450" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28155" windowHeight="14865" activeTab="1" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="MARL" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="36">
   <si>
     <t>valores_ideales</t>
   </si>
@@ -127,6 +128,21 @@
   </si>
   <si>
     <t>tiempo_en_acabar</t>
+  </si>
+  <si>
+    <t>push_out</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>good_pred</t>
+  </si>
+  <si>
+    <t>bad_pred</t>
+  </si>
+  <si>
+    <t>rate_pred</t>
   </si>
 </sst>
 </file>
@@ -5502,6 +5518,2628 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" baseline="0"/>
+              <a:t>push_out vs total de movimientos (40 runs)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MARL!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>push_out</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>MARL!$I$2:$I$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="21"/>
+                  <c:pt idx="0">
+                    <c:v>1.9683391410930611</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.5991452610943337</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>63.56775105632552</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>136.92100473799329</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>122.72859362148533</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>95.072320650366763</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>671.7026127684785</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>682.67631516118149</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>744.12653321588721</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>950.74202599863941</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>874.77425073191728</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1056.307131666854</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1536.0458318148933</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1329.6443856564401</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1591.1333607824556</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2582.6486145090739</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2091.3824258805612</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>3350.6493266613875</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>3193.6176673371915</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2036.0838328416085</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>MARL!$I$2:$I$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="21"/>
+                  <c:pt idx="0">
+                    <c:v>1.9683391410930611</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.5991452610943337</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>63.56775105632552</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>136.92100473799329</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>122.72859362148533</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>95.072320650366763</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>671.7026127684785</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>682.67631516118149</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>744.12653321588721</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>950.74202599863941</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>874.77425073191728</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1056.307131666854</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1536.0458318148933</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1329.6443856564401</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1591.1333607824556</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2582.6486145090739</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2091.3824258805612</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>3350.6493266613875</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>3193.6176673371915</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2036.0838328416085</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MARL!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114.97499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>613.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>786.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>909.55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1023.175</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1387.075</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1902.7750000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1786.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1899.125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3326.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2745.5250000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3250.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3570.7750000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2827.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C9A7-4069-86F3-117637D03759}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MARL!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>MARL!$I$2:$I$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>1.9683391410930611</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.5991452610943337</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>63.56775105632552</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>136.92100473799329</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>122.72859362148533</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>95.072320650366763</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>671.7026127684785</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>682.67631516118149</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>744.12653321588721</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>950.74202599863941</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>874.77425073191728</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1056.307131666854</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1536.0458318148933</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1329.6443856564401</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1591.1333607824556</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2582.6486145090739</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2091.3824258805612</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>3350.6493266613875</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>3193.6176673371915</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2036.0838328416085</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>MARL!$I$2:$I$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>1.9683391410930611</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.5991452610943337</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>63.56775105632552</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>136.92100473799329</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>122.72859362148533</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>95.072320650366763</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>671.7026127684785</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>682.67631516118149</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>744.12653321588721</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>950.74202599863941</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>874.77425073191728</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1056.307131666854</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1536.0458318148933</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1329.6443856564401</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1591.1333607824556</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2582.6486145090739</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2091.3824258805612</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>3350.6493266613875</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>3193.6176673371915</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2036.0838328416085</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MARL!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>308.35000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>482.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>896.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1223.6500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1595.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1597.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4013.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5263.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6056.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7035.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7300.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9913.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13791.15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12657.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13769.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25618.075000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20529.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24705.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27326.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21505.599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C9A7-4069-86F3-117637D03759}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="151745663"/>
+        <c:axId val="151747327"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="151745663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151747327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="151747327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" baseline="0"/>
+                  <a:t>Cantidad de agentes en destino</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151745663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" baseline="0"/>
+              <a:t>predicciones (40 runs)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MARL!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>good_pred</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>MARL!$D$24:$D$43</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>10.405126941400884</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>40.880681601523357</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>468.06716316226391</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>820.87845340002127</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>741.73454889579</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>667.78750458663922</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5790.0199361952482</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>5376.6740672092037</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>6722.717614360723</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9756.6957255727775</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>8655.5489449150864</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>11116.714189851515</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>16288.12450283553</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>14878.808115843027</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>17035.501315390342</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>35717.783467341229</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>23567.454051112192</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>38353.22494492845</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>42512.883278793059</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>22912.965646491673</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>MARL!$D$24:$D$43</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>10.405126941400884</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>40.880681601523357</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>468.06716316226391</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>820.87845340002127</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>741.73454889579</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>667.78750458663922</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5790.0199361952482</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>5376.6740672092037</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>6722.717614360723</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9756.6957255727775</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>8655.5489449150864</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>11116.714189851515</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>16288.12450283553</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>14878.808115843027</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>17035.501315390342</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>35717.783467341229</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>23567.454051112192</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>38353.22494492845</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>42512.883278793059</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>22912.965646491673</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MARL!$B$24:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>63.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>288.47500000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1635.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3110.7249999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3992.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3372.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22583.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31097.224999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39857.925000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52343.574999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50372.275000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81560.675000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>131263.77499999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>116502.77499999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>123749.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>273884.02500000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>219312.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>273344.375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>333651.125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>236278.52499999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E739-48E7-912A-1C5FAA78E8A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MARL!$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bad_pred</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>MARL!$D$46:$D$65</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>14.569000282475413</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>54.60203339878526</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>541.63128720749796</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1103.9203447550476</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>848.86136065637004</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>752.23271085618921</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4672.8451268458693</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4072.1084879728428</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4783.6566701447664</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>5574.2300730281386</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>5073.2227899948412</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>6410.4414816566068</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>7704.8866004400752</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>7737.2363928833875</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>8588.5495702425196</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>13967.226652013538</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>11245.303335256121</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>17063.397206992217</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>17856.871026840941</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>10153.830135969785</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>MARL!$D$46:$D$65</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>14.569000282475413</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>54.60203339878526</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>541.63128720749796</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1103.9203447550476</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>848.86136065637004</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>752.23271085618921</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4672.8451268458693</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4072.1084879728428</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4783.6566701447664</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>5574.2300730281386</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>5073.2227899948412</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>6410.4414816566068</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>7704.8866004400752</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>7737.2363928833875</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>8588.5495702425196</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>13967.226652013538</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>11245.303335256121</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>17063.397206992217</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>17856.871026840941</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>10153.830135969785</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MARL!$B$46:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>112.72499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>412.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1782.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3343.7750000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4035.0749999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3477</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18966.900000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22495.474999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26632.125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34058.375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32757.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47601.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>68142.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>64101.224999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65881.350000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>127671.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>108218.77499999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>130967.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>152007.45000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>116353.675</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E739-48E7-912A-1C5FAA78E8A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="151745663"/>
+        <c:axId val="151747327"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="151745663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151747327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="151747327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" baseline="0"/>
+                  <a:t>Cantidad de agentes en destino</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151745663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL" baseline="0"/>
+              <a:t>ratio de predicciones (accuarcy) (40 runs)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MARL!$B$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rate_pred</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>MARL!$D$68:$D$87</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>5.5238411013370493E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.571611716915804E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.7893237337253673E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.6674678283691841E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.2645540682891912E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.5811388300841896E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.9613893835683404E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.5811388300841896E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.6865498449208925E-16</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.6865498449208925E-16</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.6865498449208925E-16</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.2072142786315228E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>4.2290206176624136E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>4.6409548089224137E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>5.0064061525310607E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1.6865498449208925E-16</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.5811388300841906E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1.6865498449208925E-16</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1.6865498449208925E-16</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1.6865498449208925E-16</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>MARL!$D$68:$D$87</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>5.5238411013370493E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.571611716915804E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.7893237337253673E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.6674678283691841E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.2645540682891912E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.5811388300841896E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.9613893835683404E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.5811388300841896E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.6865498449208925E-16</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.6865498449208925E-16</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.6865498449208925E-16</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.2072142786315228E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>4.2290206176624136E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>4.6409548089224137E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>5.0064061525310607E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1.6865498449208925E-16</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.5811388300841906E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1.6865498449208925E-16</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1.6865498449208925E-16</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1.6865498449208925E-16</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MARL!$B$68:$B$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59750000000000025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50750000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50250000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40250000000000019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.40000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.40000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.40000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39500000000000024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32250000000000018</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.37000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.34250000000000025</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.30000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.30250000000000016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.30000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.30000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.30000000000000016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E2C-457A-B9B9-1DC854B61389}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="151745663"/>
+        <c:axId val="151747327"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="151745663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151747327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="151747327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" baseline="0"/>
+                  <a:t>Cantidad de agentes en destino</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151745663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5702,6 +8340,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -7767,6 +10525,1554 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8963,6 +13269,125 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76158A2B-04FE-43DC-8B13-C15EB0D5D4FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DC6761C-B68A-4F99-8596-E808C82DE4C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D88FD77-B9FF-4C9C-A1ED-EBA800BEE52E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -9262,7 +13687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B691F5-4794-4A6A-A54B-EFD8B65B6485}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -11697,4 +16122,1433 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE69219C-C24C-4E8C-9B7B-BB296391C0CC}">
+  <dimension ref="A1:I87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0.25</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>308.35000000000002</v>
+      </c>
+      <c r="H2">
+        <v>312</v>
+      </c>
+      <c r="I2">
+        <v>1.9683391410930611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>2.7250000000000001</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>3.1944463024892404</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>482.6</v>
+      </c>
+      <c r="H3">
+        <v>518</v>
+      </c>
+      <c r="I3">
+        <v>9.5991452610943337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>45.05</v>
+      </c>
+      <c r="C4">
+        <v>103</v>
+      </c>
+      <c r="D4">
+        <v>22.12198117895527</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>896.25</v>
+      </c>
+      <c r="H4">
+        <v>1048</v>
+      </c>
+      <c r="I4">
+        <v>63.56775105632552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>106.65</v>
+      </c>
+      <c r="C5">
+        <v>240</v>
+      </c>
+      <c r="D5">
+        <v>47.020208421486174</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>1223.6500000000001</v>
+      </c>
+      <c r="H5">
+        <v>1585</v>
+      </c>
+      <c r="I5">
+        <v>136.92100473799329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>114.97499999999999</v>
+      </c>
+      <c r="C6">
+        <v>210</v>
+      </c>
+      <c r="D6">
+        <v>39.607359779691805</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1595.5</v>
+      </c>
+      <c r="H6">
+        <v>1845</v>
+      </c>
+      <c r="I6">
+        <v>122.72859362148533</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="C7">
+        <v>170</v>
+      </c>
+      <c r="D7">
+        <v>34.205862445508167</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>1597.15</v>
+      </c>
+      <c r="H7">
+        <v>1902</v>
+      </c>
+      <c r="I7">
+        <v>95.072320650366763</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>613.125</v>
+      </c>
+      <c r="C8">
+        <v>991</v>
+      </c>
+      <c r="D8">
+        <v>176.9199714052975</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>4013.9</v>
+      </c>
+      <c r="H8">
+        <v>5540</v>
+      </c>
+      <c r="I8">
+        <v>671.7026127684785</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>786.35</v>
+      </c>
+      <c r="C9">
+        <v>1186</v>
+      </c>
+      <c r="D9">
+        <v>182.66089500520522</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>5263.35</v>
+      </c>
+      <c r="H9">
+        <v>6651</v>
+      </c>
+      <c r="I9">
+        <v>682.67631516118149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>909.55</v>
+      </c>
+      <c r="C10">
+        <v>1450</v>
+      </c>
+      <c r="D10">
+        <v>187.74012999424596</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10">
+        <v>6056.1</v>
+      </c>
+      <c r="H10">
+        <v>8440</v>
+      </c>
+      <c r="I10">
+        <v>744.12653321588721</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>1023.175</v>
+      </c>
+      <c r="C11">
+        <v>1448</v>
+      </c>
+      <c r="D11">
+        <v>207.52088402783048</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>7035.4</v>
+      </c>
+      <c r="H11">
+        <v>9045</v>
+      </c>
+      <c r="I11">
+        <v>950.74202599863941</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>1024.3</v>
+      </c>
+      <c r="C12">
+        <v>1414</v>
+      </c>
+      <c r="D12">
+        <v>190.93054180741163</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12">
+        <v>7300.6</v>
+      </c>
+      <c r="H12">
+        <v>8996</v>
+      </c>
+      <c r="I12">
+        <v>874.77425073191728</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>1387.075</v>
+      </c>
+      <c r="C13">
+        <v>2140</v>
+      </c>
+      <c r="D13">
+        <v>218.91157183221591</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>9913.25</v>
+      </c>
+      <c r="H13">
+        <v>13176</v>
+      </c>
+      <c r="I13">
+        <v>1056.307131666854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>1902.7750000000001</v>
+      </c>
+      <c r="C14">
+        <v>2426</v>
+      </c>
+      <c r="D14">
+        <v>282.01950173520663</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14">
+        <v>13791.15</v>
+      </c>
+      <c r="H14">
+        <v>16515</v>
+      </c>
+      <c r="I14">
+        <v>1536.0458318148933</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>1786.75</v>
+      </c>
+      <c r="C15">
+        <v>2456</v>
+      </c>
+      <c r="D15">
+        <v>282.79482006644014</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <v>12657.25</v>
+      </c>
+      <c r="H15">
+        <v>15612</v>
+      </c>
+      <c r="I15">
+        <v>1329.6443856564401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>1899.125</v>
+      </c>
+      <c r="C16">
+        <v>2581</v>
+      </c>
+      <c r="D16">
+        <v>297.07541885383159</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>13769.25</v>
+      </c>
+      <c r="H16">
+        <v>17410</v>
+      </c>
+      <c r="I16">
+        <v>1591.1333607824556</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>3326.6</v>
+      </c>
+      <c r="C17">
+        <v>4235</v>
+      </c>
+      <c r="D17">
+        <v>379.5498548381924</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17">
+        <v>25618.075000000001</v>
+      </c>
+      <c r="H17">
+        <v>31910</v>
+      </c>
+      <c r="I17">
+        <v>2582.6486145090739</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>2745.5250000000001</v>
+      </c>
+      <c r="C18">
+        <v>3656</v>
+      </c>
+      <c r="D18">
+        <v>347.82105534090681</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18">
+        <v>20529.599999999999</v>
+      </c>
+      <c r="H18">
+        <v>25210</v>
+      </c>
+      <c r="I18">
+        <v>2091.3824258805612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>3250.3</v>
+      </c>
+      <c r="C19">
+        <v>4481</v>
+      </c>
+      <c r="D19">
+        <v>487.7793322016384</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19">
+        <v>24705.75</v>
+      </c>
+      <c r="H19">
+        <v>33582</v>
+      </c>
+      <c r="I19">
+        <v>3350.6493266613875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>3570.7750000000001</v>
+      </c>
+      <c r="C20">
+        <v>4589</v>
+      </c>
+      <c r="D20">
+        <v>495.78420075467244</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20">
+        <v>27326.799999999999</v>
+      </c>
+      <c r="H20">
+        <v>34758</v>
+      </c>
+      <c r="I20">
+        <v>3193.6176673371915</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>2827.85</v>
+      </c>
+      <c r="C21">
+        <v>3593</v>
+      </c>
+      <c r="D21">
+        <v>303.84649886381033</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>21505.599999999999</v>
+      </c>
+      <c r="H21">
+        <v>26916</v>
+      </c>
+      <c r="I21">
+        <v>2036.0838328416085</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>63.2</v>
+      </c>
+      <c r="C24">
+        <v>89</v>
+      </c>
+      <c r="D24">
+        <v>10.405126941400884</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>288.47500000000002</v>
+      </c>
+      <c r="C25">
+        <v>420</v>
+      </c>
+      <c r="D25">
+        <v>40.880681601523357</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>1635.05</v>
+      </c>
+      <c r="C26">
+        <v>2968</v>
+      </c>
+      <c r="D26">
+        <v>468.06716316226391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>3110.7249999999999</v>
+      </c>
+      <c r="C27">
+        <v>5054</v>
+      </c>
+      <c r="D27">
+        <v>820.87845340002127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>3992.25</v>
+      </c>
+      <c r="C28">
+        <v>5648</v>
+      </c>
+      <c r="D28">
+        <v>741.73454889579</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>3372.95</v>
+      </c>
+      <c r="C29">
+        <v>5329</v>
+      </c>
+      <c r="D29">
+        <v>667.78750458663922</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>22583.599999999999</v>
+      </c>
+      <c r="C30">
+        <v>34953</v>
+      </c>
+      <c r="D30">
+        <v>5790.0199361952482</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <v>31097.224999999999</v>
+      </c>
+      <c r="C31">
+        <v>42321</v>
+      </c>
+      <c r="D31">
+        <v>5376.6740672092037</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <v>39857.925000000003</v>
+      </c>
+      <c r="C32">
+        <v>61257</v>
+      </c>
+      <c r="D32">
+        <v>6722.717614360723</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>52343.574999999997</v>
+      </c>
+      <c r="C33">
+        <v>70885</v>
+      </c>
+      <c r="D33">
+        <v>9756.6957255727775</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <v>50372.275000000001</v>
+      </c>
+      <c r="C34">
+        <v>67389</v>
+      </c>
+      <c r="D34">
+        <v>8655.5489449150864</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <v>81560.675000000003</v>
+      </c>
+      <c r="C35">
+        <v>114637</v>
+      </c>
+      <c r="D35">
+        <v>11116.714189851515</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36">
+        <v>131263.77499999999</v>
+      </c>
+      <c r="C36">
+        <v>164214</v>
+      </c>
+      <c r="D36">
+        <v>16288.12450283553</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <v>116502.77499999999</v>
+      </c>
+      <c r="C37">
+        <v>144579</v>
+      </c>
+      <c r="D37">
+        <v>14878.808115843027</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>123749.6</v>
+      </c>
+      <c r="C38">
+        <v>161054</v>
+      </c>
+      <c r="D38">
+        <v>17035.501315390342</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39">
+        <v>273884.02500000002</v>
+      </c>
+      <c r="C39">
+        <v>341619</v>
+      </c>
+      <c r="D39">
+        <v>35717.783467341229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40">
+        <v>219312.4</v>
+      </c>
+      <c r="C40">
+        <v>271830</v>
+      </c>
+      <c r="D40">
+        <v>23567.454051112192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41">
+        <v>273344.375</v>
+      </c>
+      <c r="C41">
+        <v>379506</v>
+      </c>
+      <c r="D41">
+        <v>38353.22494492845</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>333651.125</v>
+      </c>
+      <c r="C42">
+        <v>458919</v>
+      </c>
+      <c r="D42">
+        <v>42512.883278793059</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>236278.52499999999</v>
+      </c>
+      <c r="C43">
+        <v>294531</v>
+      </c>
+      <c r="D43">
+        <v>22912.965646491673</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <v>112.72499999999999</v>
+      </c>
+      <c r="C46">
+        <v>144</v>
+      </c>
+      <c r="D46">
+        <v>14.569000282475413</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47">
+        <v>412.05</v>
+      </c>
+      <c r="C47">
+        <v>528</v>
+      </c>
+      <c r="D47">
+        <v>54.60203339878526</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48">
+        <v>1782.6</v>
+      </c>
+      <c r="C48">
+        <v>3462</v>
+      </c>
+      <c r="D48">
+        <v>541.63128720749796</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49">
+        <v>3343.7750000000001</v>
+      </c>
+      <c r="C49">
+        <v>6566</v>
+      </c>
+      <c r="D49">
+        <v>1103.9203447550476</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>4035.0749999999998</v>
+      </c>
+      <c r="C50">
+        <v>5933</v>
+      </c>
+      <c r="D50">
+        <v>848.86136065637004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51">
+        <v>3477</v>
+      </c>
+      <c r="C51">
+        <v>5382</v>
+      </c>
+      <c r="D51">
+        <v>752.23271085618921</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52">
+        <v>18966.900000000001</v>
+      </c>
+      <c r="C52">
+        <v>28437</v>
+      </c>
+      <c r="D52">
+        <v>4672.8451268458693</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53">
+        <v>22495.474999999999</v>
+      </c>
+      <c r="C53">
+        <v>33333</v>
+      </c>
+      <c r="D53">
+        <v>4072.1084879728428</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54">
+        <v>26632.125</v>
+      </c>
+      <c r="C54">
+        <v>41849</v>
+      </c>
+      <c r="D54">
+        <v>4783.6566701447664</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>34058.375</v>
+      </c>
+      <c r="C55">
+        <v>45138</v>
+      </c>
+      <c r="D55">
+        <v>5574.2300730281386</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56">
+        <v>32757.4</v>
+      </c>
+      <c r="C56">
+        <v>44465</v>
+      </c>
+      <c r="D56">
+        <v>5073.2227899948412</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57">
+        <v>47601.1</v>
+      </c>
+      <c r="C57">
+        <v>69801</v>
+      </c>
+      <c r="D57">
+        <v>6410.4414816566068</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58">
+        <v>68142.25</v>
+      </c>
+      <c r="C58">
+        <v>81841</v>
+      </c>
+      <c r="D58">
+        <v>7704.8866004400752</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59">
+        <v>64101.224999999999</v>
+      </c>
+      <c r="C59">
+        <v>80071</v>
+      </c>
+      <c r="D59">
+        <v>7737.2363928833875</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>65881.350000000006</v>
+      </c>
+      <c r="C60">
+        <v>84515</v>
+      </c>
+      <c r="D60">
+        <v>8588.5495702425196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61">
+        <v>127671.4</v>
+      </c>
+      <c r="C61">
+        <v>156430</v>
+      </c>
+      <c r="D61">
+        <v>13967.226652013538</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62">
+        <v>108218.77499999999</v>
+      </c>
+      <c r="C62">
+        <v>133426</v>
+      </c>
+      <c r="D62">
+        <v>11245.303335256121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63">
+        <v>130967.25</v>
+      </c>
+      <c r="C63">
+        <v>176269</v>
+      </c>
+      <c r="D63">
+        <v>17063.397206992217</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64">
+        <v>152007.45000000001</v>
+      </c>
+      <c r="C64">
+        <v>199139</v>
+      </c>
+      <c r="D64">
+        <v>17856.871026840941</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>116353.675</v>
+      </c>
+      <c r="C65">
+        <v>139501</v>
+      </c>
+      <c r="D65">
+        <v>10153.830135969785</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="C68">
+        <v>0.7</v>
+      </c>
+      <c r="D68">
+        <v>5.5238411013370493E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69">
+        <v>0.59750000000000025</v>
+      </c>
+      <c r="C69">
+        <v>0.7</v>
+      </c>
+      <c r="D69">
+        <v>3.571611716915804E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70">
+        <v>0.51</v>
+      </c>
+      <c r="C70">
+        <v>0.6</v>
+      </c>
+      <c r="D70">
+        <v>3.7893237337253673E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71">
+        <v>0.50750000000000006</v>
+      </c>
+      <c r="C71">
+        <v>0.6</v>
+      </c>
+      <c r="D71">
+        <v>2.6674678283691841E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>0.5</v>
+      </c>
+      <c r="C72">
+        <v>0.6</v>
+      </c>
+      <c r="D72">
+        <v>2.2645540682891912E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73">
+        <v>0.50250000000000006</v>
+      </c>
+      <c r="C73">
+        <v>0.6</v>
+      </c>
+      <c r="D73">
+        <v>1.5811388300841896E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74">
+        <v>0.46000000000000008</v>
+      </c>
+      <c r="C74">
+        <v>0.5</v>
+      </c>
+      <c r="D74">
+        <v>4.9613893835683404E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75">
+        <v>0.40250000000000019</v>
+      </c>
+      <c r="C75">
+        <v>0.5</v>
+      </c>
+      <c r="D75">
+        <v>1.5811388300841896E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76">
+        <v>0.40000000000000019</v>
+      </c>
+      <c r="C76">
+        <v>0.4</v>
+      </c>
+      <c r="D76">
+        <v>1.6865498449208925E-16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>0.40000000000000019</v>
+      </c>
+      <c r="C77">
+        <v>0.4</v>
+      </c>
+      <c r="D77">
+        <v>1.6865498449208925E-16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78">
+        <v>0.40000000000000019</v>
+      </c>
+      <c r="C78">
+        <v>0.4</v>
+      </c>
+      <c r="D78">
+        <v>1.6865498449208925E-16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79">
+        <v>0.39500000000000024</v>
+      </c>
+      <c r="C79">
+        <v>0.4</v>
+      </c>
+      <c r="D79">
+        <v>2.2072142786315228E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80">
+        <v>0.32250000000000018</v>
+      </c>
+      <c r="C80">
+        <v>0.4</v>
+      </c>
+      <c r="D80">
+        <v>4.2290206176624136E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81">
+        <v>0.37000000000000022</v>
+      </c>
+      <c r="C81">
+        <v>0.4</v>
+      </c>
+      <c r="D81">
+        <v>4.6409548089224137E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82">
+        <v>0.34250000000000025</v>
+      </c>
+      <c r="C82">
+        <v>0.4</v>
+      </c>
+      <c r="D82">
+        <v>5.0064061525310607E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83">
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="C83">
+        <v>0.3</v>
+      </c>
+      <c r="D83">
+        <v>1.6865498449208925E-16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84">
+        <v>0.30250000000000016</v>
+      </c>
+      <c r="C84">
+        <v>0.4</v>
+      </c>
+      <c r="D84">
+        <v>1.5811388300841906E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85">
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="C85">
+        <v>0.3</v>
+      </c>
+      <c r="D85">
+        <v>1.6865498449208925E-16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>26</v>
+      </c>
+      <c r="B86">
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="C86">
+        <v>0.3</v>
+      </c>
+      <c r="D86">
+        <v>1.6865498449208925E-16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87">
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="C87">
+        <v>0.3</v>
+      </c>
+      <c r="D87">
+        <v>1.6865498449208925E-16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/memoria/escalar_agentes/pasillo/pasillo.xlsx
+++ b/memoria/escalar_agentes/pasillo/pasillo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\PycharmProjects\MT-MARL\memoria\escalar_agentes\pasillo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109F403C-384D-421E-A044-70052B9CCEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8155BA9-F0D0-473E-AD4F-D3E63793A1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28155" windowHeight="14865" activeTab="1" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="28155" windowHeight="14490" activeTab="1" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1131,6 +1131,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Tramo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CL" baseline="0"/>
+                  <a:t> de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1173,6 +1233,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -2304,6 +2365,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2346,6 +2465,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -3295,6 +3415,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3337,6 +3515,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -4290,6 +4469,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5276,6 +5513,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5318,6 +5613,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -6261,6 +6557,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6303,12 +6654,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="151747327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7242,6 +7595,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7284,6 +7692,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -7902,6 +8311,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Tramo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CL" baseline="0"/>
+                  <a:t> de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -13687,8 +14156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B691F5-4794-4A6A-A54B-EFD8B65B6485}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16128,8 +16597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE69219C-C24C-4E8C-9B7B-BB296391C0CC}">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/memoria/escalar_agentes/pasillo/pasillo.xlsx
+++ b/memoria/escalar_agentes/pasillo/pasillo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\PycharmProjects\MT-MARL\memoria\escalar_agentes\pasillo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\MT-MARL\memoria\escalar_agentes\pasillo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8155BA9-F0D0-473E-AD4F-D3E63793A1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9427FE-C05F-4BAF-A515-F853134E544F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="28155" windowHeight="14490" activeTab="1" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
+    <workbookView xWindow="-20610" yWindow="4860" windowWidth="20730" windowHeight="10785" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>agentes_en_goal</t>
-  </si>
-  <si>
-    <t>MARL</t>
   </si>
   <si>
     <t>Baseline</t>
@@ -143,6 +140,9 @@
   </si>
   <si>
     <t>rate_pred</t>
+  </si>
+  <si>
+    <t>CR-MAPF</t>
   </si>
 </sst>
 </file>
@@ -236,15 +236,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-CL" baseline="0"/>
-              <a:t> sum of costs </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CL"/>
-              <a:t>MARL</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CL" baseline="0"/>
-              <a:t>/Baseline (40 runs)</a:t>
+              <a:t> sum of costs (40 runs)</a:t>
             </a:r>
             <a:endParaRPr lang="es-CL"/>
           </a:p>
@@ -294,7 +286,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MARL</c:v>
+                  <c:v>CR-MAPF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1478,7 +1470,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-CL"/>
-              <a:t>MARL/Baseline (40 runs)</a:t>
+              <a:t>(40 runs)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1527,7 +1519,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MARL</c:v>
+                  <c:v>CR-MAPF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2751,7 +2743,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MARL</c:v>
+                  <c:v>CR-MAPF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3805,7 +3797,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MARL</c:v>
+                  <c:v>CR-MAPF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4849,7 +4841,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MARL</c:v>
+                  <c:v>CR-MAPF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14156,8 +14148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B691F5-4794-4A6A-A54B-EFD8B65B6485}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14168,39 +14160,39 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
         <v>0</v>
@@ -14208,7 +14200,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>30.835000000000001</v>
@@ -14226,7 +14218,7 @@
         <v>30.2</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3">
         <v>91.655000000000001</v>
@@ -14246,7 +14238,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>24.13</v>
@@ -14264,7 +14256,7 @@
         <v>23.2</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4">
         <v>70.032499999999999</v>
@@ -14284,7 +14276,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>29.875</v>
@@ -14302,7 +14294,7 @@
         <v>23.8</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5">
         <v>71.2</v>
@@ -14322,7 +14314,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>30.591249999999999</v>
@@ -14340,7 +14332,7 @@
         <v>20.675000000000001</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6">
         <v>88.408749999999998</v>
@@ -14398,7 +14390,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>26.619166666666661</v>
@@ -14416,7 +14408,7 @@
         <v>21.366666666666671</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8">
         <v>53.75333333333333</v>
@@ -14436,7 +14428,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>57.341428571428573</v>
@@ -14454,7 +14446,7 @@
         <v>23.714285714285719</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9">
         <v>82.76</v>
@@ -14474,7 +14466,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>65.791875000000005</v>
@@ -14492,7 +14484,7 @@
         <v>25.087499999999999</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10">
         <v>101.674375</v>
@@ -14512,7 +14504,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>67.290000000000006</v>
@@ -14530,7 +14522,7 @@
         <v>23.62222222222222</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I11">
         <v>89.603333333333325</v>
@@ -14588,7 +14580,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>66.369090909090914</v>
@@ -14606,7 +14598,7 @@
         <v>24.618181818181821</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13">
         <v>106.0206818181818</v>
@@ -14626,7 +14618,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>82.610416666666666</v>
@@ -14644,7 +14636,7 @@
         <v>24.583333333333329</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I14">
         <v>105.92020833333331</v>
@@ -14664,7 +14656,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>106.0857692307693</v>
@@ -14682,7 +14674,7 @@
         <v>24.838461538461541</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I15">
         <v>127.4221153846154</v>
@@ -14702,7 +14694,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>90.408928571428575</v>
@@ -14720,7 +14712,7 @@
         <v>24.25714285714286</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16">
         <v>108.52892857142859</v>
@@ -14778,7 +14770,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>160.11296874999999</v>
@@ -14796,7 +14788,7 @@
         <v>26.675000000000001</v>
       </c>
       <c r="H18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I18">
         <v>157.69593750000001</v>
@@ -14816,7 +14808,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>120.7623529411765</v>
@@ -14834,7 +14826,7 @@
         <v>23.764705882352938</v>
       </c>
       <c r="H19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I19">
         <v>99.985588235294117</v>
@@ -14854,7 +14846,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>137.25416666666669</v>
@@ -14872,7 +14864,7 @@
         <v>23.977777777777781</v>
       </c>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I20">
         <v>120.8879166666667</v>
@@ -14892,7 +14884,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>143.82526315789471</v>
@@ -14910,7 +14902,7 @@
         <v>24.147368421052629</v>
       </c>
       <c r="H21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I21">
         <v>115.38552631578951</v>
@@ -14988,7 +14980,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27">
         <v>48</v>
@@ -15000,7 +14992,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27">
         <v>335.15</v>
@@ -15014,7 +15006,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <v>50.9</v>
@@ -15026,7 +15018,7 @@
         <v>5.3722935941307801</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28">
         <v>489.9</v>
@@ -15040,7 +15032,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>78.375</v>
@@ -15052,7 +15044,7 @@
         <v>13.951725378090018</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29">
         <v>439.6</v>
@@ -15066,7 +15058,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>118.52500000000001</v>
@@ -15078,7 +15070,7 @@
         <v>30.123666051964122</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G30">
         <v>506.95</v>
@@ -15118,7 +15110,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32">
         <v>100.575</v>
@@ -15130,7 +15122,7 @@
         <v>19.710582215704637</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G32">
         <v>545.25</v>
@@ -15144,7 +15136,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33">
         <v>275.35000000000002</v>
@@ -15156,7 +15148,7 @@
         <v>55.236809540424495</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G33">
         <v>544.9</v>
@@ -15170,7 +15162,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34">
         <v>318.45</v>
@@ -15182,7 +15174,7 @@
         <v>52.229743957309914</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G34">
         <v>571.67499999999995</v>
@@ -15196,7 +15188,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35">
         <v>334.52499999999998</v>
@@ -15208,7 +15200,7 @@
         <v>48.453513275282106</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G35">
         <v>601.25</v>
@@ -15248,7 +15240,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37">
         <v>346.22500000000002</v>
@@ -15260,7 +15252,7 @@
         <v>53.134318187314307</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G37">
         <v>558.25</v>
@@ -15274,7 +15266,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38">
         <v>416.625</v>
@@ -15286,7 +15278,7 @@
         <v>56.677987179938128</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G38">
         <v>588.17499999999995</v>
@@ -15300,7 +15292,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B39">
         <v>507.55</v>
@@ -15312,7 +15304,7 @@
         <v>70.053807158754097</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G39">
         <v>567.875</v>
@@ -15326,7 +15318,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B40">
         <v>496.2</v>
@@ -15338,7 +15330,7 @@
         <v>72.11038546775147</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G40">
         <v>564.65</v>
@@ -15378,7 +15370,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B42">
         <v>721.65</v>
@@ -15390,7 +15382,7 @@
         <v>85.44290341268713</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G42">
         <v>581.22500000000002</v>
@@ -15404,7 +15396,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B43">
         <v>644.27499999999998</v>
@@ -15416,7 +15408,7 @@
         <v>72.837010703385673</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G43">
         <v>621.07500000000005</v>
@@ -15430,7 +15422,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B44">
         <v>718.97500000000002</v>
@@ -15442,7 +15434,7 @@
         <v>105.3306119820485</v>
       </c>
       <c r="F44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G44">
         <v>604.54999999999995</v>
@@ -15456,7 +15448,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45">
         <v>761.95</v>
@@ -15468,7 +15460,7 @@
         <v>113.16970465315359</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G45">
         <v>650.27499999999998</v>
@@ -15508,7 +15500,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -15517,7 +15509,7 @@
         <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H50" t="s">
         <v>6</v>
@@ -15528,7 +15520,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B51">
         <v>48</v>
@@ -15540,7 +15532,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G51">
         <v>335.15</v>
@@ -15554,7 +15546,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B52">
         <v>50.9</v>
@@ -15566,7 +15558,7 @@
         <v>5.3722935941307801</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G52">
         <v>489.9</v>
@@ -15580,7 +15572,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B53">
         <v>78.375</v>
@@ -15592,7 +15584,7 @@
         <v>13.951725378090018</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G53">
         <v>439.6</v>
@@ -15606,7 +15598,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B54">
         <v>118.52500000000001</v>
@@ -15618,7 +15610,7 @@
         <v>30.123666051964122</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G54">
         <v>506.95</v>
@@ -15658,7 +15650,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B56">
         <v>100.575</v>
@@ -15670,7 +15662,7 @@
         <v>19.710582215704637</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G56">
         <v>545.25</v>
@@ -15684,7 +15676,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B57">
         <v>275.35000000000002</v>
@@ -15696,7 +15688,7 @@
         <v>55.236809540424495</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G57">
         <v>544.9</v>
@@ -15710,7 +15702,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B58">
         <v>318.45</v>
@@ -15722,7 +15714,7 @@
         <v>52.229743957309914</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G58">
         <v>571.67499999999995</v>
@@ -15736,7 +15728,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B59">
         <v>334.52499999999998</v>
@@ -15748,7 +15740,7 @@
         <v>48.453513275282106</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G59">
         <v>601.25</v>
@@ -15788,7 +15780,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B61">
         <v>346.22500000000002</v>
@@ -15800,7 +15792,7 @@
         <v>53.134318187314307</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G61">
         <v>629.54999999999995</v>
@@ -15814,7 +15806,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B62">
         <v>416.625</v>
@@ -15826,7 +15818,7 @@
         <v>56.677987179938128</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G62">
         <v>612.02499999999998</v>
@@ -15840,7 +15832,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B63">
         <v>507.55</v>
@@ -15852,7 +15844,7 @@
         <v>70.053807158754097</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G63">
         <v>614.6</v>
@@ -15866,7 +15858,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B64">
         <v>496.2</v>
@@ -15878,7 +15870,7 @@
         <v>72.11038546775147</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G64">
         <v>635.375</v>
@@ -15918,7 +15910,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B66">
         <v>729.82500000000005</v>
@@ -15930,7 +15922,7 @@
         <v>95.696873860469594</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G66">
         <v>674.42499999999995</v>
@@ -15944,7 +15936,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B67">
         <v>644.27499999999998</v>
@@ -15956,7 +15948,7 @@
         <v>72.837010703385673</v>
       </c>
       <c r="F67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G67">
         <v>643.57500000000005</v>
@@ -15970,7 +15962,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B68">
         <v>718.97500000000002</v>
@@ -15982,7 +15974,7 @@
         <v>105.3306119820485</v>
       </c>
       <c r="F68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G68">
         <v>673.1</v>
@@ -15996,7 +15988,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B69">
         <v>761.95</v>
@@ -16008,7 +16000,7 @@
         <v>113.16970465315359</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G69">
         <v>695.625</v>
@@ -16068,7 +16060,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B76">
         <v>10</v>
@@ -16080,7 +16072,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G76">
         <v>10</v>
@@ -16094,7 +16086,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B77">
         <v>20</v>
@@ -16106,7 +16098,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G77">
         <v>20</v>
@@ -16120,7 +16112,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B78">
         <v>30</v>
@@ -16132,7 +16124,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G78">
         <v>30</v>
@@ -16146,7 +16138,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B79">
         <v>40</v>
@@ -16158,7 +16150,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G79">
         <v>40</v>
@@ -16198,7 +16190,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B81">
         <v>60</v>
@@ -16210,7 +16202,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G81">
         <v>60</v>
@@ -16224,7 +16216,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B82">
         <v>70</v>
@@ -16236,7 +16228,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G82">
         <v>70</v>
@@ -16250,7 +16242,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B83">
         <v>80</v>
@@ -16262,7 +16254,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G83">
         <v>80</v>
@@ -16276,7 +16268,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B84">
         <v>90</v>
@@ -16288,7 +16280,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G84">
         <v>90</v>
@@ -16328,7 +16320,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B86">
         <v>110</v>
@@ -16340,7 +16332,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G86">
         <v>106.55</v>
@@ -16354,7 +16346,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B87">
         <v>120</v>
@@ -16366,7 +16358,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G87">
         <v>118.5</v>
@@ -16380,7 +16372,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B88">
         <v>130</v>
@@ -16392,7 +16384,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G88">
         <v>126.8</v>
@@ -16406,7 +16398,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B89">
         <v>140</v>
@@ -16418,7 +16410,7 @@
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G89">
         <v>136</v>
@@ -16458,7 +16450,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B91">
         <v>159.94999999999999</v>
@@ -16470,7 +16462,7 @@
         <v>0.316227766016838</v>
       </c>
       <c r="F91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G91">
         <v>151.02500000000001</v>
@@ -16484,7 +16476,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B92">
         <v>170</v>
@@ -16496,7 +16488,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G92">
         <v>168.35</v>
@@ -16510,7 +16502,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B93">
         <v>180</v>
@@ -16522,7 +16514,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G93">
         <v>174.15</v>
@@ -16536,7 +16528,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B94">
         <v>190</v>
@@ -16548,7 +16540,7 @@
         <v>0</v>
       </c>
       <c r="F94" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G94">
         <v>185.57499999999999</v>
@@ -16597,7 +16589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE69219C-C24C-4E8C-9B7B-BB296391C0CC}">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -16605,7 +16597,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -16614,7 +16606,7 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -16625,7 +16617,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0.25</v>
@@ -16637,7 +16629,7 @@
         <v>0.70710678118654757</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>308.35000000000002</v>
@@ -16651,7 +16643,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>2.7250000000000001</v>
@@ -16663,7 +16655,7 @@
         <v>3.1944463024892404</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>482.6</v>
@@ -16677,7 +16669,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>45.05</v>
@@ -16689,7 +16681,7 @@
         <v>22.12198117895527</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>896.25</v>
@@ -16703,7 +16695,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>106.65</v>
@@ -16715,7 +16707,7 @@
         <v>47.020208421486174</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>1223.6500000000001</v>
@@ -16755,7 +16747,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>75.400000000000006</v>
@@ -16767,7 +16759,7 @@
         <v>34.205862445508167</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7">
         <v>1597.15</v>
@@ -16781,7 +16773,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>613.125</v>
@@ -16793,7 +16785,7 @@
         <v>176.9199714052975</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8">
         <v>4013.9</v>
@@ -16807,7 +16799,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>786.35</v>
@@ -16819,7 +16811,7 @@
         <v>182.66089500520522</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9">
         <v>5263.35</v>
@@ -16833,7 +16825,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>909.55</v>
@@ -16845,7 +16837,7 @@
         <v>187.74012999424596</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10">
         <v>6056.1</v>
@@ -16885,7 +16877,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>1024.3</v>
@@ -16897,7 +16889,7 @@
         <v>190.93054180741163</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12">
         <v>7300.6</v>
@@ -16911,7 +16903,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>1387.075</v>
@@ -16923,7 +16915,7 @@
         <v>218.91157183221591</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13">
         <v>9913.25</v>
@@ -16937,7 +16929,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>1902.7750000000001</v>
@@ -16949,7 +16941,7 @@
         <v>282.01950173520663</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14">
         <v>13791.15</v>
@@ -16963,7 +16955,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>1786.75</v>
@@ -16975,7 +16967,7 @@
         <v>282.79482006644014</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15">
         <v>12657.25</v>
@@ -17015,7 +17007,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>3326.6</v>
@@ -17027,7 +17019,7 @@
         <v>379.5498548381924</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17">
         <v>25618.075000000001</v>
@@ -17041,7 +17033,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>2745.5250000000001</v>
@@ -17053,7 +17045,7 @@
         <v>347.82105534090681</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18">
         <v>20529.599999999999</v>
@@ -17067,7 +17059,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>3250.3</v>
@@ -17079,7 +17071,7 @@
         <v>487.7793322016384</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19">
         <v>24705.75</v>
@@ -17093,7 +17085,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>3570.7750000000001</v>
@@ -17105,7 +17097,7 @@
         <v>495.78420075467244</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20">
         <v>27326.799999999999</v>
@@ -17145,7 +17137,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -17156,7 +17148,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24">
         <v>63.2</v>
@@ -17170,7 +17162,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>288.47500000000002</v>
@@ -17184,7 +17176,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26">
         <v>1635.05</v>
@@ -17198,7 +17190,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>3110.7249999999999</v>
@@ -17226,7 +17218,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29">
         <v>3372.95</v>
@@ -17240,7 +17232,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30">
         <v>22583.599999999999</v>
@@ -17254,7 +17246,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31">
         <v>31097.224999999999</v>
@@ -17268,7 +17260,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32">
         <v>39857.925000000003</v>
@@ -17296,7 +17288,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34">
         <v>50372.275000000001</v>
@@ -17310,7 +17302,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35">
         <v>81560.675000000003</v>
@@ -17324,7 +17316,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B36">
         <v>131263.77499999999</v>
@@ -17338,7 +17330,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37">
         <v>116502.77499999999</v>
@@ -17366,7 +17358,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B39">
         <v>273884.02500000002</v>
@@ -17380,7 +17372,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40">
         <v>219312.4</v>
@@ -17394,7 +17386,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41">
         <v>273344.375</v>
@@ -17408,7 +17400,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B42">
         <v>333651.125</v>
@@ -17436,7 +17428,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -17447,7 +17439,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46">
         <v>112.72499999999999</v>
@@ -17461,7 +17453,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>412.05</v>
@@ -17475,7 +17467,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48">
         <v>1782.6</v>
@@ -17489,7 +17481,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B49">
         <v>3343.7750000000001</v>
@@ -17517,7 +17509,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51">
         <v>3477</v>
@@ -17531,7 +17523,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B52">
         <v>18966.900000000001</v>
@@ -17545,7 +17537,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B53">
         <v>22495.474999999999</v>
@@ -17559,7 +17551,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B54">
         <v>26632.125</v>
@@ -17587,7 +17579,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B56">
         <v>32757.4</v>
@@ -17601,7 +17593,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B57">
         <v>47601.1</v>
@@ -17615,7 +17607,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B58">
         <v>68142.25</v>
@@ -17629,7 +17621,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B59">
         <v>64101.224999999999</v>
@@ -17657,7 +17649,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B61">
         <v>127671.4</v>
@@ -17671,7 +17663,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B62">
         <v>108218.77499999999</v>
@@ -17685,7 +17677,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B63">
         <v>130967.25</v>
@@ -17699,7 +17691,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B64">
         <v>152007.45000000001</v>
@@ -17727,7 +17719,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
@@ -17738,7 +17730,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B68">
         <v>0.64500000000000002</v>
@@ -17752,7 +17744,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B69">
         <v>0.59750000000000025</v>
@@ -17766,7 +17758,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B70">
         <v>0.51</v>
@@ -17780,7 +17772,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B71">
         <v>0.50750000000000006</v>
@@ -17808,7 +17800,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B73">
         <v>0.50250000000000006</v>
@@ -17822,7 +17814,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B74">
         <v>0.46000000000000008</v>
@@ -17836,7 +17828,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B75">
         <v>0.40250000000000019</v>
@@ -17850,7 +17842,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B76">
         <v>0.40000000000000019</v>
@@ -17878,7 +17870,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B78">
         <v>0.40000000000000019</v>
@@ -17892,7 +17884,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B79">
         <v>0.39500000000000024</v>
@@ -17906,7 +17898,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B80">
         <v>0.32250000000000018</v>
@@ -17920,7 +17912,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B81">
         <v>0.37000000000000022</v>
@@ -17948,7 +17940,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B83">
         <v>0.30000000000000016</v>
@@ -17962,7 +17954,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B84">
         <v>0.30250000000000016</v>
@@ -17976,7 +17968,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B85">
         <v>0.30000000000000016</v>
@@ -17990,7 +17982,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B86">
         <v>0.30000000000000016</v>

--- a/memoria/escalar_agentes/pasillo/pasillo.xlsx
+++ b/memoria/escalar_agentes/pasillo/pasillo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazu\MT-MARL\memoria\escalar_agentes\pasillo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9427FE-C05F-4BAF-A515-F853134E544F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC5EEA2-04D4-4762-A8E0-A44475CD37A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="4860" windowWidth="20730" windowHeight="10785" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77BDEF68-C8AA-4190-91B4-454775195A81}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="38">
   <si>
     <t>valores_ideales</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>CR-MAPF</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>%STDEV</t>
   </si>
 </sst>
 </file>
@@ -2170,11 +2176,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$K$2</c:f>
+              <c:f>Hoja1!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>makespan</c:v>
+                  <c:v>valores_ideales</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5840,6 +5846,1056 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="es-CL"/>
+              <a:t>%</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CL" baseline="0"/>
+              <a:t> agentes en destino (40 runs)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CR-MAPF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Hoja1!$D$76:$D$95</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.316227766016838</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Hoja1!$D$76:$D$95</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.316227766016838</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$76:$E$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99.96875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F914-477C-95E8-3E329262BE04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Hoja1!$G$100:$G$119</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11.518011737007226</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>8.0057662282743784</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>11.210437818782447</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>10.50342056996646</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>8.7764165298241181</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>18.058017618447135</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>6.1987028681649221</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>12.067716351082668</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>10.565832510696662</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>14.405835068606404</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Hoja1!$G$100:$G$119</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11.518011737007226</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>8.0057662282743784</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>11.210437818782447</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>10.50342056996646</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>8.7764165298241181</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>18.058017618447135</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>6.1987028681649221</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>12.067716351082668</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>10.565832510696662</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>14.405835068606404</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$3:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$J$76:$J$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96.86363636363636</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>97.538461538461547</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>97.142857142857139</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98.083333333333329</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>94.390625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99.029411764705884</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>96.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>97.671052631578931</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>94.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F914-477C-95E8-3E329262BE04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="151745663"/>
+        <c:axId val="151747327"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="151745663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Tramo de agentes</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151747327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="151747327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL" baseline="0"/>
+                  <a:t>% de agentes en destino</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151745663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="es-CL" baseline="0"/>
               <a:t>push_out vs total de movimientos (40 runs)</a:t>
             </a:r>
@@ -6653,6 +7709,7 @@
         <c:axId val="151747327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="30000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6844,7 +7901,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -7881,7 +8938,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -8921,6 +9978,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -12534,6 +13631,522 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13165,14 +14778,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>358588</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>758638</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>358588</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>758638</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -13590,141 +15203,39 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>365873</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>84043</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>298638</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>124384</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectángulo 12">
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Gráfico 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{637A6DF5-80A1-4238-B587-2113EFA1799B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF7FE43E-60BC-44AD-A678-B50B936F4D20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7642973" y="16848043"/>
-          <a:ext cx="1456765" cy="802341"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>Aquí el promedio de agentes que llegarón</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100" b="0" cap="none" spc="0" baseline="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t> (</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100" b="0" cap="none" spc="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>difieren poquisimo)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1100" b="0" cap="none" spc="0" baseline="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-CL" sz="1100" b="0" cap="none" spc="0">
-            <a:ln w="0"/>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="dk1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-CL" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -14146,10 +15657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B691F5-4794-4A6A-A54B-EFD8B65B6485}">
-  <dimension ref="A1:M95"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15882,7 +17393,7 @@
         <v>127.58681056742985</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -15908,7 +17419,7 @@
         <v>127.31511481964121</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>22</v>
       </c>
@@ -15934,7 +17445,7 @@
         <v>128.28851448480458</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>23</v>
       </c>
@@ -15960,7 +17471,7 @@
         <v>88.147570759319507</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>24</v>
       </c>
@@ -15986,7 +17497,7 @@
         <v>118.13894470668973</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>25</v>
       </c>
@@ -16012,7 +17523,7 @@
         <v>99.015587350990046</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -16038,7 +17549,7 @@
         <v>125.18769497981395</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>8</v>
       </c>
@@ -16048,6 +17559,9 @@
       <c r="D75" t="s">
         <v>7</v>
       </c>
+      <c r="E75" t="s">
+        <v>36</v>
+      </c>
       <c r="G75" t="s">
         <v>8</v>
       </c>
@@ -16057,8 +17571,11 @@
       <c r="I75" t="s">
         <v>7</v>
       </c>
+      <c r="J75" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -16071,6 +17588,10 @@
       <c r="D76">
         <v>0</v>
       </c>
+      <c r="E76">
+        <f>(B76/C76)*100</f>
+        <v>100</v>
+      </c>
       <c r="F76" t="s">
         <v>10</v>
       </c>
@@ -16083,8 +17604,12 @@
       <c r="I76">
         <v>0</v>
       </c>
+      <c r="J76">
+        <f>(G76/H76)*100</f>
+        <v>100</v>
+      </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -16097,6 +17622,10 @@
       <c r="D77">
         <v>0</v>
       </c>
+      <c r="E77">
+        <f t="shared" ref="E77:E95" si="0">(B77/C77)*100</f>
+        <v>100</v>
+      </c>
       <c r="F77" t="s">
         <v>11</v>
       </c>
@@ -16109,8 +17638,12 @@
       <c r="I77">
         <v>0</v>
       </c>
+      <c r="J77">
+        <f t="shared" ref="J77:J95" si="1">(G77/H77)*100</f>
+        <v>100</v>
+      </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -16123,6 +17656,10 @@
       <c r="D78">
         <v>0</v>
       </c>
+      <c r="E78">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F78" t="s">
         <v>12</v>
       </c>
@@ -16135,8 +17672,12 @@
       <c r="I78">
         <v>0</v>
       </c>
+      <c r="J78">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -16149,6 +17690,10 @@
       <c r="D79">
         <v>0</v>
       </c>
+      <c r="E79">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F79" t="s">
         <v>13</v>
       </c>
@@ -16161,8 +17706,12 @@
       <c r="I79">
         <v>0</v>
       </c>
+      <c r="J79">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -16175,6 +17724,10 @@
       <c r="D80">
         <v>0</v>
       </c>
+      <c r="E80">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F80" t="s">
         <v>1</v>
       </c>
@@ -16187,8 +17740,12 @@
       <c r="I80">
         <v>0</v>
       </c>
+      <c r="J80">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -16201,6 +17758,10 @@
       <c r="D81">
         <v>0</v>
       </c>
+      <c r="E81">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F81" t="s">
         <v>14</v>
       </c>
@@ -16213,8 +17774,12 @@
       <c r="I81">
         <v>0</v>
       </c>
+      <c r="J81">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -16227,6 +17792,10 @@
       <c r="D82">
         <v>0</v>
       </c>
+      <c r="E82">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F82" t="s">
         <v>15</v>
       </c>
@@ -16239,8 +17808,12 @@
       <c r="I82">
         <v>0</v>
       </c>
+      <c r="J82">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>16</v>
       </c>
@@ -16253,6 +17826,10 @@
       <c r="D83">
         <v>0</v>
       </c>
+      <c r="E83">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F83" t="s">
         <v>16</v>
       </c>
@@ -16265,8 +17842,12 @@
       <c r="I83">
         <v>0</v>
       </c>
+      <c r="J83">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -16279,6 +17860,10 @@
       <c r="D84">
         <v>0</v>
       </c>
+      <c r="E84">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F84" t="s">
         <v>17</v>
       </c>
@@ -16291,8 +17876,12 @@
       <c r="I84">
         <v>0</v>
       </c>
+      <c r="J84">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -16305,6 +17894,10 @@
       <c r="D85">
         <v>0</v>
       </c>
+      <c r="E85">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F85" t="s">
         <v>2</v>
       </c>
@@ -16317,8 +17910,12 @@
       <c r="I85">
         <v>0</v>
       </c>
+      <c r="J85">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -16331,6 +17928,10 @@
       <c r="D86">
         <v>0</v>
       </c>
+      <c r="E86">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F86" t="s">
         <v>18</v>
       </c>
@@ -16343,8 +17944,12 @@
       <c r="I86">
         <v>12.272441505781199</v>
       </c>
+      <c r="J86">
+        <f t="shared" si="1"/>
+        <v>96.86363636363636</v>
+      </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -16357,6 +17962,10 @@
       <c r="D87">
         <v>0</v>
       </c>
+      <c r="E87">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F87" t="s">
         <v>19</v>
       </c>
@@ -16369,8 +17978,12 @@
       <c r="I87">
         <v>9.4868329805051381</v>
       </c>
+      <c r="J87">
+        <f t="shared" si="1"/>
+        <v>98.75</v>
+      </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -16383,6 +17996,10 @@
       <c r="D88">
         <v>0</v>
       </c>
+      <c r="E88">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F88" t="s">
         <v>20</v>
       </c>
@@ -16395,8 +18012,12 @@
       <c r="I88">
         <v>14.214835154216143</v>
       </c>
+      <c r="J88">
+        <f t="shared" si="1"/>
+        <v>97.538461538461547</v>
+      </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>21</v>
       </c>
@@ -16409,6 +18030,10 @@
       <c r="D89">
         <v>0</v>
       </c>
+      <c r="E89">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F89" t="s">
         <v>21</v>
       </c>
@@ -16421,8 +18046,12 @@
       <c r="I89">
         <v>14.284651975154384</v>
       </c>
+      <c r="J89">
+        <f t="shared" si="1"/>
+        <v>97.142857142857139</v>
+      </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -16435,6 +18064,10 @@
       <c r="D90">
         <v>0</v>
       </c>
+      <c r="E90">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F90" t="s">
         <v>3</v>
       </c>
@@ -16447,8 +18080,12 @@
       <c r="I90">
         <v>12.912302819503735</v>
       </c>
+      <c r="J90">
+        <f t="shared" si="1"/>
+        <v>98.083333333333329</v>
+      </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -16461,6 +18098,10 @@
       <c r="D91">
         <v>0.316227766016838</v>
       </c>
+      <c r="E91">
+        <f t="shared" si="0"/>
+        <v>99.96875</v>
+      </c>
       <c r="F91" t="s">
         <v>22</v>
       </c>
@@ -16473,8 +18114,12 @@
       <c r="I91">
         <v>27.272121108259789</v>
       </c>
+      <c r="J91">
+        <f t="shared" si="1"/>
+        <v>94.390625</v>
+      </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>23</v>
       </c>
@@ -16487,6 +18132,10 @@
       <c r="D92">
         <v>0</v>
       </c>
+      <c r="E92">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F92" t="s">
         <v>23</v>
       </c>
@@ -16499,8 +18148,12 @@
       <c r="I92">
         <v>10.435516278555646</v>
       </c>
+      <c r="J92">
+        <f t="shared" si="1"/>
+        <v>99.029411764705884</v>
+      </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>24</v>
       </c>
@@ -16513,6 +18166,10 @@
       <c r="D93">
         <v>0</v>
       </c>
+      <c r="E93">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F93" t="s">
         <v>24</v>
       </c>
@@ -16525,8 +18182,12 @@
       <c r="I93">
         <v>21.015928025410467</v>
       </c>
+      <c r="J93">
+        <f t="shared" si="1"/>
+        <v>96.75</v>
+      </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>25</v>
       </c>
@@ -16539,6 +18200,10 @@
       <c r="D94">
         <v>0</v>
       </c>
+      <c r="E94">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F94" t="s">
         <v>25</v>
       </c>
@@ -16551,8 +18216,12 @@
       <c r="I94">
         <v>19.607543681725328</v>
       </c>
+      <c r="J94">
+        <f t="shared" si="1"/>
+        <v>97.671052631578931</v>
+      </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -16565,6 +18234,10 @@
       <c r="D95">
         <v>0</v>
       </c>
+      <c r="E95">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="F95" t="s">
         <v>4</v>
       </c>
@@ -16576,6 +18249,218 @@
       </c>
       <c r="I95">
         <v>27.342274960214954</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="1"/>
+        <v>94.9</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>37</v>
+      </c>
+      <c r="G99" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <f>(D76/B76)*100</f>
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <f>(I76/G76)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <f t="shared" ref="B101:B119" si="2">(D77/B77)*100</f>
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <f t="shared" ref="G101:G119" si="3">(I77/G77)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="3"/>
+        <v>11.518011737007226</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="3"/>
+        <v>8.0057662282743784</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="3"/>
+        <v>11.210437818782447</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="3"/>
+        <v>10.50342056996646</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="3"/>
+        <v>8.7764165298241181</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <f t="shared" si="2"/>
+        <v>0.19770413630311848</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="3"/>
+        <v>18.058017618447135</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="3"/>
+        <v>6.1987028681649221</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="3"/>
+        <v>12.067716351082668</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="3"/>
+        <v>10.565832510696662</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="3"/>
+        <v>14.405835068606404</v>
       </c>
     </row>
   </sheetData>
@@ -16589,8 +18474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE69219C-C24C-4E8C-9B7B-BB296391C0CC}">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="H2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
